--- a/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/単体テスト更新画面_エビデンス.xlsx
+++ b/202304/04_単体テスト/01_単体テストのエビデンス/チーム２/単体テスト更新画面_エビデンス.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makoucyou\Desktop\2023-04\202304\04_単体テスト\01_単体テストのエビデンス\チーム２\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,13 +246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>197340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -301,13 +301,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -317,7 +317,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="23812500"/>
+          <a:off x="685800" y="26908125"/>
           <a:ext cx="11572875" cy="1905000"/>
           <a:chOff x="685800" y="23812500"/>
           <a:chExt cx="11572875" cy="1905000"/>
@@ -415,13 +415,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -431,7 +431,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="32385000"/>
+          <a:off x="685800" y="35480625"/>
           <a:ext cx="11772900" cy="2085975"/>
           <a:chOff x="685800" y="32385000"/>
           <a:chExt cx="11772900" cy="2085975"/>
@@ -529,13 +529,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>180</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -545,7 +545,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="41195625"/>
+          <a:off x="685800" y="44291250"/>
           <a:ext cx="11763375" cy="1857375"/>
           <a:chOff x="685800" y="41195625"/>
           <a:chExt cx="11763375" cy="1857375"/>
@@ -643,13 +643,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -659,7 +659,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="55959375"/>
+          <a:off x="685800" y="59055000"/>
           <a:ext cx="11734800" cy="2019300"/>
           <a:chOff x="685800" y="55959375"/>
           <a:chExt cx="11734800" cy="2019300"/>
@@ -757,13 +757,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>245</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>77543</xdr:colOff>
-      <xdr:row>273</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -773,7 +773,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="58340625"/>
+          <a:off x="685800" y="61436250"/>
           <a:ext cx="7621343" cy="6705600"/>
           <a:chOff x="685800" y="58340625"/>
           <a:chExt cx="7621343" cy="6705600"/>
@@ -996,13 +996,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>226446</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1012,7 +1012,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685801" y="50006250"/>
+          <a:off x="685801" y="53101875"/>
           <a:ext cx="6315074" cy="5703321"/>
           <a:chOff x="685801" y="50006250"/>
           <a:chExt cx="6315074" cy="5703321"/>
@@ -1280,13 +1280,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>35139</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1296,7 +1296,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685799" y="43576876"/>
+          <a:off x="685799" y="46672501"/>
           <a:ext cx="6600825" cy="5750138"/>
           <a:chOff x="685799" y="43576876"/>
           <a:chExt cx="6600825" cy="5750138"/>
@@ -1510,13 +1510,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1526,7 +1526,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="35004375"/>
+          <a:off x="685800" y="38100000"/>
           <a:ext cx="6772275" cy="5915025"/>
           <a:chOff x="685800" y="35004375"/>
           <a:chExt cx="6772275" cy="5915025"/>
@@ -1794,13 +1794,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>538031</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1810,7 +1810,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685800" y="26193751"/>
+          <a:off x="685800" y="29289376"/>
           <a:ext cx="6710231" cy="5867400"/>
           <a:chOff x="685800" y="26193751"/>
           <a:chExt cx="6710231" cy="5867400"/>
@@ -2078,13 +2078,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>189101</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2094,7 +2094,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685801" y="17621250"/>
+          <a:off x="685801" y="20716875"/>
           <a:ext cx="6810374" cy="5904101"/>
           <a:chOff x="685801" y="17621250"/>
           <a:chExt cx="6810374" cy="5904101"/>
@@ -2362,13 +2362,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>138133</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2378,7 +2378,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685801" y="11906250"/>
+          <a:off x="685801" y="15001875"/>
           <a:ext cx="6410324" cy="5138758"/>
           <a:chOff x="685801" y="11906250"/>
           <a:chExt cx="6410324" cy="5138758"/>
@@ -2592,13 +2592,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2608,7 +2608,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="685801" y="6191250"/>
+          <a:off x="685801" y="9286875"/>
           <a:ext cx="6362700" cy="5314950"/>
           <a:chOff x="685801" y="6191250"/>
           <a:chExt cx="6362700" cy="5314950"/>
@@ -2816,6 +2816,61 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="図 69" descr="C:\Users\makoucyou\AppData\Roaming\Tencent\Users\1512952665\QQ\WinTemp\RichOle\6NWRG(X5]SB41VXTPAD1_S1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="676275" y="1085850"/>
+          <a:ext cx="11696700" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3084,56 +3139,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B245"/>
+  <dimension ref="B15:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B110" t="s">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B147" t="s">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B160" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B183" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B196" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B210" t="s">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B223" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B245" t="s">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B258" t="s">
         <v>8</v>
       </c>
     </row>
